--- a/Project Documents/PopUp Score.xlsx
+++ b/Project Documents/PopUp Score.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00195834\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00195834\Documents\Push-Penguin-3D\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Internal Functionality</t>
   </si>
@@ -80,10 +80,13 @@
     <t>Penguin colliding with item triggers popup score.</t>
   </si>
   <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Game Manager?</t>
+    <t>Game Manager</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>ScoreBoard Count</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -496,8 +499,11 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
